--- a/www.eia.gov/electricity/monthly/xls/table_5_04_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_04_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 5.4.A. Sales of Electricity to Ultimate Customers by End-Use Sector,</t>
   </si>
   <si>
-    <t>by State, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -52,10 +52,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>New England</t>
@@ -1287,34 +1287,34 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>3209</v>
+        <v>3235</v>
       </c>
       <c r="C5" s="8">
-        <v>3291</v>
+        <v>3192</v>
       </c>
       <c r="D5" s="8">
-        <v>4215</v>
+        <v>3948</v>
       </c>
       <c r="E5" s="8">
-        <v>4321</v>
+        <v>4017</v>
       </c>
       <c r="F5" s="8">
-        <v>1398</v>
+        <v>1375</v>
       </c>
       <c r="G5" s="8">
-        <v>1655</v>
+        <v>1476</v>
       </c>
       <c r="H5" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" s="8">
         <v>42</v>
       </c>
       <c r="J5" s="8">
-        <v>8864</v>
+        <v>8603</v>
       </c>
       <c r="K5" s="8">
-        <v>9309</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,34 +1322,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <v>821</v>
+        <v>866</v>
       </c>
       <c r="C6" s="10">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D6" s="10">
-        <v>995</v>
+        <v>926</v>
       </c>
       <c r="E6" s="10">
-        <v>1013</v>
+        <v>960</v>
       </c>
       <c r="F6" s="10">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G6" s="10">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="H6" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="10">
         <v>13</v>
       </c>
       <c r="J6" s="10">
-        <v>2085</v>
+        <v>2071</v>
       </c>
       <c r="K6" s="10">
-        <v>2175</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1357,23 +1357,23 @@
         <v>13</v>
       </c>
       <c r="B7" s="10">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C7" s="10">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D7" s="10">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E7" s="10">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="F7" s="10">
+        <v>233</v>
+      </c>
+      <c r="G7" s="10">
         <v>246</v>
       </c>
-      <c r="G7" s="10">
-        <v>352</v>
-      </c>
       <c r="H7" s="10">
         <v>0</v>
       </c>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="K7" s="10">
-        <v>1023</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,34 +1392,34 @@
         <v>14</v>
       </c>
       <c r="B8" s="10">
-        <v>1377</v>
+        <v>1349</v>
       </c>
       <c r="C8" s="10">
-        <v>1401</v>
+        <v>1353</v>
       </c>
       <c r="D8" s="10">
-        <v>2101</v>
+        <v>1964</v>
       </c>
       <c r="E8" s="10">
-        <v>2155</v>
+        <v>2003</v>
       </c>
       <c r="F8" s="10">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G8" s="10">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="H8" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="10">
         <v>27</v>
       </c>
       <c r="J8" s="10">
-        <v>4055</v>
+        <v>3887</v>
       </c>
       <c r="K8" s="10">
-        <v>4236</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,19 +1430,19 @@
         <v>317</v>
       </c>
       <c r="C9" s="10">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D9" s="10">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E9" s="10">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F9" s="10">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G9" s="10">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="K9" s="10">
-        <v>856</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,19 +1462,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C10" s="10">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D10" s="10">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E10" s="10">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F10" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="10">
         <v>64</v>
@@ -1486,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="10">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K10" s="10">
-        <v>589</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,19 +1497,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C11" s="10">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D11" s="10">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E11" s="10">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F11" s="10">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G11" s="10">
         <v>117</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="10">
+        <v>427</v>
+      </c>
+      <c r="K11" s="10">
         <v>426</v>
-      </c>
-      <c r="K11" s="10">
-        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1532,34 +1532,34 @@
         <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>9111</v>
+        <v>8989</v>
       </c>
       <c r="C12" s="8">
-        <v>9119</v>
+        <v>8692</v>
       </c>
       <c r="D12" s="8">
-        <v>12687</v>
+        <v>12068</v>
       </c>
       <c r="E12" s="8">
-        <v>12658</v>
+        <v>12037</v>
       </c>
       <c r="F12" s="8">
-        <v>5879</v>
+        <v>5577</v>
       </c>
       <c r="G12" s="8">
-        <v>6089</v>
+        <v>5730</v>
       </c>
       <c r="H12" s="8">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I12" s="8">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="J12" s="8">
-        <v>27990</v>
+        <v>26951</v>
       </c>
       <c r="K12" s="8">
-        <v>28202</v>
+        <v>26767</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1567,34 +1567,34 @@
         <v>19</v>
       </c>
       <c r="B13" s="10">
-        <v>1886</v>
+        <v>1817</v>
       </c>
       <c r="C13" s="10">
-        <v>1817</v>
+        <v>1789</v>
       </c>
       <c r="D13" s="10">
-        <v>3096</v>
+        <v>2905</v>
       </c>
       <c r="E13" s="10">
-        <v>3047</v>
+        <v>2895</v>
       </c>
       <c r="F13" s="10">
-        <v>611</v>
+        <v>538</v>
       </c>
       <c r="G13" s="10">
         <v>614</v>
       </c>
       <c r="H13" s="10">
+        <v>23</v>
+      </c>
+      <c r="I13" s="10">
         <v>24</v>
       </c>
-      <c r="I13" s="10">
-        <v>27</v>
-      </c>
       <c r="J13" s="10">
-        <v>5616</v>
+        <v>5284</v>
       </c>
       <c r="K13" s="10">
-        <v>5506</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,34 +1602,34 @@
         <v>20</v>
       </c>
       <c r="B14" s="10">
-        <v>3711</v>
+        <v>3509</v>
       </c>
       <c r="C14" s="10">
-        <v>3776</v>
+        <v>3380</v>
       </c>
       <c r="D14" s="10">
-        <v>6113</v>
+        <v>5818</v>
       </c>
       <c r="E14" s="10">
-        <v>6169</v>
+        <v>5813</v>
       </c>
       <c r="F14" s="10">
-        <v>1341</v>
+        <v>1423</v>
       </c>
       <c r="G14" s="10">
-        <v>1499</v>
+        <v>1483</v>
       </c>
       <c r="H14" s="10">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I14" s="10">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J14" s="10">
-        <v>11386</v>
+        <v>10982</v>
       </c>
       <c r="K14" s="10">
-        <v>11684</v>
+        <v>10901</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,34 +1637,34 @@
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>3514</v>
+        <v>3663</v>
       </c>
       <c r="C15" s="10">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="D15" s="10">
-        <v>3479</v>
+        <v>3344</v>
       </c>
       <c r="E15" s="10">
-        <v>3441</v>
+        <v>3329</v>
       </c>
       <c r="F15" s="10">
-        <v>3928</v>
+        <v>3616</v>
       </c>
       <c r="G15" s="10">
-        <v>3976</v>
+        <v>3633</v>
       </c>
       <c r="H15" s="10">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I15" s="10">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J15" s="10">
-        <v>10988</v>
+        <v>10685</v>
       </c>
       <c r="K15" s="10">
-        <v>11013</v>
+        <v>10544</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,34 +1672,34 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>12140</v>
+        <v>12530</v>
       </c>
       <c r="C16" s="8">
-        <v>11781</v>
+        <v>12774</v>
       </c>
       <c r="D16" s="8">
-        <v>15048</v>
+        <v>14028</v>
       </c>
       <c r="E16" s="8">
-        <v>14733</v>
+        <v>13957</v>
       </c>
       <c r="F16" s="8">
-        <v>15181</v>
+        <v>14593</v>
       </c>
       <c r="G16" s="8">
-        <v>16298</v>
+        <v>15376</v>
       </c>
       <c r="H16" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16" s="8">
-        <v>42412</v>
+        <v>41191</v>
       </c>
       <c r="K16" s="8">
-        <v>42857</v>
+        <v>42150</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1707,34 +1707,34 @@
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>2972</v>
+        <v>2984</v>
       </c>
       <c r="C17" s="10">
-        <v>2857</v>
+        <v>3145</v>
       </c>
       <c r="D17" s="10">
-        <v>4053</v>
+        <v>3821</v>
       </c>
       <c r="E17" s="10">
-        <v>3999</v>
+        <v>3822</v>
       </c>
       <c r="F17" s="10">
-        <v>3484</v>
+        <v>3201</v>
       </c>
       <c r="G17" s="10">
-        <v>3476</v>
+        <v>3319</v>
       </c>
       <c r="H17" s="10">
+        <v>35</v>
+      </c>
+      <c r="I17" s="10">
         <v>38</v>
       </c>
-      <c r="I17" s="10">
-        <v>41</v>
-      </c>
       <c r="J17" s="10">
-        <v>10547</v>
+        <v>10041</v>
       </c>
       <c r="K17" s="10">
-        <v>10373</v>
+        <v>10324</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,34 +1742,34 @@
         <v>24</v>
       </c>
       <c r="B18" s="10">
-        <v>2082</v>
+        <v>2123</v>
       </c>
       <c r="C18" s="10">
-        <v>2042</v>
+        <v>2096</v>
       </c>
       <c r="D18" s="10">
-        <v>1987</v>
+        <v>1833</v>
       </c>
       <c r="E18" s="10">
-        <v>1936</v>
+        <v>1777</v>
       </c>
       <c r="F18" s="10">
-        <v>3302</v>
+        <v>3198</v>
       </c>
       <c r="G18" s="10">
-        <v>3967</v>
+        <v>3738</v>
       </c>
       <c r="H18" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="10">
         <v>2</v>
       </c>
       <c r="J18" s="10">
-        <v>7373</v>
+        <v>7155</v>
       </c>
       <c r="K18" s="10">
-        <v>7946</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,34 +1777,34 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="C19" s="10">
-        <v>2221</v>
+        <v>2438</v>
       </c>
       <c r="D19" s="10">
-        <v>3240</v>
+        <v>2927</v>
       </c>
       <c r="E19" s="10">
-        <v>3142</v>
+        <v>2948</v>
       </c>
       <c r="F19" s="10">
-        <v>2341</v>
+        <v>2453</v>
       </c>
       <c r="G19" s="10">
-        <v>2581</v>
+        <v>2474</v>
       </c>
       <c r="H19" s="10">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I19" s="10">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J19" s="10">
-        <v>7941</v>
+        <v>7745</v>
       </c>
       <c r="K19" s="10">
-        <v>7945</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,34 +1812,34 @@
         <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>3243</v>
+        <v>3470</v>
       </c>
       <c r="C20" s="10">
-        <v>3208</v>
+        <v>3467</v>
       </c>
       <c r="D20" s="10">
-        <v>3843</v>
+        <v>3642</v>
       </c>
       <c r="E20" s="10">
-        <v>3767</v>
+        <v>3579</v>
       </c>
       <c r="F20" s="10">
-        <v>4007</v>
+        <v>3837</v>
       </c>
       <c r="G20" s="10">
-        <v>4260</v>
+        <v>3948</v>
       </c>
       <c r="H20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="10">
-        <v>11095</v>
+        <v>10952</v>
       </c>
       <c r="K20" s="10">
-        <v>11238</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1847,22 +1847,22 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>1484</v>
+        <v>1588</v>
       </c>
       <c r="C21" s="10">
-        <v>1453</v>
+        <v>1627</v>
       </c>
       <c r="D21" s="10">
-        <v>1924</v>
+        <v>1805</v>
       </c>
       <c r="E21" s="10">
-        <v>1890</v>
+        <v>1832</v>
       </c>
       <c r="F21" s="10">
-        <v>2047</v>
+        <v>1905</v>
       </c>
       <c r="G21" s="10">
-        <v>2013</v>
+        <v>1896</v>
       </c>
       <c r="H21" s="10">
         <v>0.02</v>
@@ -1871,10 +1871,10 @@
         <v>0.02</v>
       </c>
       <c r="J21" s="10">
-        <v>5455</v>
+        <v>5298</v>
       </c>
       <c r="K21" s="10">
-        <v>5356</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,22 +1882,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>6722</v>
+        <v>6618</v>
       </c>
       <c r="C22" s="8">
-        <v>6547</v>
+        <v>6812</v>
       </c>
       <c r="D22" s="8">
-        <v>8323</v>
+        <v>7882</v>
       </c>
       <c r="E22" s="8">
-        <v>8111</v>
+        <v>7903</v>
       </c>
       <c r="F22" s="8">
-        <v>7045</v>
+        <v>7091</v>
       </c>
       <c r="G22" s="8">
-        <v>7567</v>
+        <v>7396</v>
       </c>
       <c r="H22" s="8">
         <v>4</v>
@@ -1906,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="J22" s="8">
-        <v>22094</v>
+        <v>21595</v>
       </c>
       <c r="K22" s="8">
-        <v>22228</v>
+        <v>22114</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="10">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C23" s="10">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="D23" s="10">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="E23" s="10">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F23" s="10">
-        <v>1816</v>
+        <v>1884</v>
       </c>
       <c r="G23" s="10">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>3714</v>
+        <v>3733</v>
       </c>
       <c r="K23" s="10">
-        <v>3651</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,23 +1952,23 @@
         <v>30</v>
       </c>
       <c r="B24" s="10">
+        <v>801</v>
+      </c>
+      <c r="C24" s="10">
+        <v>807</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1186</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1165</v>
+      </c>
+      <c r="F24" s="10">
+        <v>894</v>
+      </c>
+      <c r="G24" s="10">
         <v>886</v>
       </c>
-      <c r="C24" s="10">
-        <v>821</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1287</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1241</v>
-      </c>
-      <c r="F24" s="10">
-        <v>856</v>
-      </c>
-      <c r="G24" s="10">
-        <v>911</v>
-      </c>
       <c r="H24" s="10">
         <v>0</v>
       </c>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>3029</v>
+        <v>2881</v>
       </c>
       <c r="K24" s="10">
-        <v>2973</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,22 +1987,22 @@
         <v>31</v>
       </c>
       <c r="B25" s="10">
-        <v>1471</v>
+        <v>1537</v>
       </c>
       <c r="C25" s="10">
-        <v>1519</v>
+        <v>1602</v>
       </c>
       <c r="D25" s="10">
-        <v>1878</v>
+        <v>1762</v>
       </c>
       <c r="E25" s="10">
-        <v>1905</v>
+        <v>1813</v>
       </c>
       <c r="F25" s="10">
-        <v>1712</v>
+        <v>1657</v>
       </c>
       <c r="G25" s="10">
-        <v>1762</v>
+        <v>1691</v>
       </c>
       <c r="H25" s="10">
         <v>2</v>
@@ -2011,10 +2011,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="10">
-        <v>5063</v>
+        <v>4959</v>
       </c>
       <c r="K25" s="10">
-        <v>5188</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,34 +2022,34 @@
         <v>32</v>
       </c>
       <c r="B26" s="10">
-        <v>2211</v>
+        <v>2089</v>
       </c>
       <c r="C26" s="10">
-        <v>2059</v>
+        <v>2143</v>
       </c>
       <c r="D26" s="10">
-        <v>2468</v>
+        <v>2321</v>
       </c>
       <c r="E26" s="10">
-        <v>2353</v>
+        <v>2297</v>
       </c>
       <c r="F26" s="10">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="G26" s="10">
-        <v>1439</v>
+        <v>1358</v>
       </c>
       <c r="H26" s="10">
         <v>2</v>
       </c>
       <c r="I26" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>5676</v>
+        <v>5357</v>
       </c>
       <c r="K26" s="10">
-        <v>5852</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,22 +2057,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="10">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="C27" s="10">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="D27" s="10">
-        <v>778</v>
+        <v>741</v>
       </c>
       <c r="E27" s="10">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="F27" s="10">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="G27" s="10">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>2242</v>
+        <v>2210</v>
       </c>
       <c r="K27" s="10">
-        <v>2230</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,22 +2092,22 @@
         <v>34</v>
       </c>
       <c r="B28" s="10">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="C28" s="10">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="D28" s="10">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E28" s="10">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="F28" s="10">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="G28" s="10">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>1457</v>
+        <v>1523</v>
       </c>
       <c r="K28" s="10">
-        <v>1414</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>35</v>
       </c>
       <c r="B29" s="10">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C29" s="10">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="D29" s="10">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E29" s="10">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F29" s="10">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G29" s="10">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="10">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="K29" s="10">
-        <v>920</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2162,34 +2162,34 @@
         <v>36</v>
       </c>
       <c r="B30" s="8">
-        <v>25457</v>
+        <v>23420</v>
       </c>
       <c r="C30" s="8">
-        <v>24601</v>
+        <v>23712</v>
       </c>
       <c r="D30" s="8">
-        <v>25345</v>
+        <v>23788</v>
       </c>
       <c r="E30" s="8">
-        <v>25502</v>
+        <v>24045</v>
       </c>
       <c r="F30" s="8">
-        <v>11370</v>
+        <v>11157</v>
       </c>
       <c r="G30" s="8">
-        <v>12053</v>
+        <v>11712</v>
       </c>
       <c r="H30" s="8">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I30" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J30" s="8">
-        <v>62284</v>
+        <v>58465</v>
       </c>
       <c r="K30" s="8">
-        <v>62256</v>
+        <v>59581</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,22 +2197,22 @@
         <v>37</v>
       </c>
       <c r="B31" s="10">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C31" s="10">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D31" s="10">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E31" s="10">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="F31" s="10">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G31" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>831</v>
+        <v>794</v>
       </c>
       <c r="K31" s="10">
-        <v>877</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2232,34 +2232,34 @@
         <v>38</v>
       </c>
       <c r="B32" s="10">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C32" s="10">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D32" s="10">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="E32" s="10">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="F32" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H32" s="10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I32" s="10">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J32" s="10">
-        <v>875</v>
+        <v>816</v>
       </c>
       <c r="K32" s="10">
-        <v>773</v>
+        <v>831</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2267,22 +2267,22 @@
         <v>39</v>
       </c>
       <c r="B33" s="10">
-        <v>10241</v>
+        <v>8175</v>
       </c>
       <c r="C33" s="10">
-        <v>10023</v>
+        <v>9212</v>
       </c>
       <c r="D33" s="10">
-        <v>8056</v>
+        <v>7305</v>
       </c>
       <c r="E33" s="10">
-        <v>8181</v>
+        <v>7825</v>
       </c>
       <c r="F33" s="10">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="G33" s="10">
-        <v>1386</v>
+        <v>1412</v>
       </c>
       <c r="H33" s="10">
         <v>7</v>
@@ -2291,10 +2291,10 @@
         <v>8</v>
       </c>
       <c r="J33" s="10">
-        <v>19641</v>
+        <v>16808</v>
       </c>
       <c r="K33" s="10">
-        <v>19599</v>
+        <v>18456</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,22 +2302,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="10">
-        <v>4070</v>
+        <v>3566</v>
       </c>
       <c r="C34" s="10">
-        <v>3710</v>
+        <v>3508</v>
       </c>
       <c r="D34" s="10">
-        <v>3854</v>
+        <v>3508</v>
       </c>
       <c r="E34" s="10">
-        <v>3799</v>
+        <v>3517</v>
       </c>
       <c r="F34" s="10">
-        <v>2631</v>
+        <v>2489</v>
       </c>
       <c r="G34" s="10">
-        <v>2732</v>
+        <v>2557</v>
       </c>
       <c r="H34" s="10">
         <v>13</v>
@@ -2326,10 +2326,10 @@
         <v>13</v>
       </c>
       <c r="J34" s="10">
-        <v>10568</v>
+        <v>9575</v>
       </c>
       <c r="K34" s="10">
-        <v>10254</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2337,34 +2337,34 @@
         <v>41</v>
       </c>
       <c r="B35" s="10">
-        <v>1595</v>
+        <v>1786</v>
       </c>
       <c r="C35" s="10">
-        <v>1552</v>
+        <v>1687</v>
       </c>
       <c r="D35" s="10">
-        <v>2376</v>
+        <v>2240</v>
       </c>
       <c r="E35" s="10">
-        <v>2421</v>
+        <v>2464</v>
       </c>
       <c r="F35" s="10">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="G35" s="10">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="H35" s="10">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I35" s="10">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J35" s="10">
-        <v>4318</v>
+        <v>4388</v>
       </c>
       <c r="K35" s="10">
-        <v>4316</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2372,34 +2372,34 @@
         <v>42</v>
       </c>
       <c r="B36" s="10">
-        <v>3587</v>
+        <v>3762</v>
       </c>
       <c r="C36" s="10">
-        <v>3552</v>
+        <v>3371</v>
       </c>
       <c r="D36" s="10">
-        <v>3817</v>
+        <v>3657</v>
       </c>
       <c r="E36" s="10">
-        <v>3911</v>
+        <v>3554</v>
       </c>
       <c r="F36" s="10">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="G36" s="10">
-        <v>2303</v>
+        <v>2329</v>
       </c>
       <c r="H36" s="10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I36" s="10">
         <v>1</v>
       </c>
       <c r="J36" s="10">
-        <v>9593</v>
+        <v>9607</v>
       </c>
       <c r="K36" s="10">
-        <v>9768</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2407,22 +2407,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="10">
-        <v>2019</v>
+        <v>1945</v>
       </c>
       <c r="C37" s="10">
-        <v>1898</v>
+        <v>1782</v>
       </c>
       <c r="D37" s="10">
-        <v>1667</v>
+        <v>1632</v>
       </c>
       <c r="E37" s="10">
-        <v>1744</v>
+        <v>1555</v>
       </c>
       <c r="F37" s="10">
-        <v>2206</v>
+        <v>2220</v>
       </c>
       <c r="G37" s="10">
-        <v>2440</v>
+        <v>2542</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="10">
-        <v>5892</v>
+        <v>5797</v>
       </c>
       <c r="K37" s="10">
-        <v>6081</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,34 +2442,34 @@
         <v>44</v>
       </c>
       <c r="B38" s="10">
-        <v>2805</v>
+        <v>2963</v>
       </c>
       <c r="C38" s="10">
-        <v>2739</v>
+        <v>2934</v>
       </c>
       <c r="D38" s="10">
-        <v>3967</v>
+        <v>3875</v>
       </c>
       <c r="E38" s="10">
-        <v>3860</v>
+        <v>3546</v>
       </c>
       <c r="F38" s="10">
-        <v>1424</v>
+        <v>1351</v>
       </c>
       <c r="G38" s="10">
-        <v>1564</v>
+        <v>1320</v>
       </c>
       <c r="H38" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J38" s="10">
-        <v>8212</v>
+        <v>8200</v>
       </c>
       <c r="K38" s="10">
-        <v>8180</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2477,22 +2477,22 @@
         <v>45</v>
       </c>
       <c r="B39" s="10">
-        <v>657</v>
+        <v>787</v>
       </c>
       <c r="C39" s="10">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="D39" s="10">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E39" s="10">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="F39" s="10">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G39" s="10">
-        <v>1101</v>
+        <v>1017</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="10">
-        <v>2354</v>
+        <v>2479</v>
       </c>
       <c r="K39" s="10">
-        <v>2409</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,22 +2512,22 @@
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>8511</v>
+        <v>7342</v>
       </c>
       <c r="C40" s="8">
-        <v>7663</v>
+        <v>7112</v>
       </c>
       <c r="D40" s="8">
-        <v>7666</v>
+        <v>6928</v>
       </c>
       <c r="E40" s="8">
-        <v>7415</v>
+        <v>6874</v>
       </c>
       <c r="F40" s="8">
-        <v>8141</v>
+        <v>7904</v>
       </c>
       <c r="G40" s="8">
-        <v>8485</v>
+        <v>7902</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>24318</v>
+        <v>22175</v>
       </c>
       <c r="K40" s="8">
-        <v>23562</v>
+        <v>21888</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2547,22 +2547,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="10">
-        <v>2277</v>
+        <v>1971</v>
       </c>
       <c r="C41" s="10">
-        <v>2041</v>
+        <v>1963</v>
       </c>
       <c r="D41" s="10">
-        <v>1896</v>
+        <v>1705</v>
       </c>
       <c r="E41" s="10">
-        <v>1879</v>
+        <v>1731</v>
       </c>
       <c r="F41" s="10">
-        <v>2673</v>
+        <v>2613</v>
       </c>
       <c r="G41" s="10">
-        <v>2786</v>
+        <v>2581</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>6846</v>
+        <v>6288</v>
       </c>
       <c r="K41" s="10">
-        <v>6705</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2582,22 +2582,22 @@
         <v>48</v>
       </c>
       <c r="B42" s="10">
-        <v>1690</v>
+        <v>1643</v>
       </c>
       <c r="C42" s="10">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="D42" s="10">
-        <v>1569</v>
+        <v>1466</v>
       </c>
       <c r="E42" s="10">
-        <v>1551</v>
+        <v>1438</v>
       </c>
       <c r="F42" s="10">
-        <v>2303</v>
+        <v>2254</v>
       </c>
       <c r="G42" s="10">
-        <v>2451</v>
+        <v>2264</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="10">
-        <v>5562</v>
+        <v>5364</v>
       </c>
       <c r="K42" s="10">
-        <v>5592</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,22 +2617,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="10">
-        <v>1539</v>
+        <v>1190</v>
       </c>
       <c r="C43" s="10">
-        <v>1363</v>
+        <v>1115</v>
       </c>
       <c r="D43" s="10">
-        <v>1251</v>
+        <v>1065</v>
       </c>
       <c r="E43" s="10">
-        <v>1230</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="10">
-        <v>1380</v>
+        <v>1341</v>
       </c>
       <c r="G43" s="10">
-        <v>1359</v>
+        <v>1279</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>4170</v>
+        <v>3596</v>
       </c>
       <c r="K43" s="10">
-        <v>3952</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2652,22 +2652,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="10">
-        <v>3005</v>
+        <v>2538</v>
       </c>
       <c r="C44" s="10">
-        <v>2668</v>
+        <v>2415</v>
       </c>
       <c r="D44" s="10">
-        <v>2949</v>
+        <v>2692</v>
       </c>
       <c r="E44" s="10">
-        <v>2756</v>
+        <v>2605</v>
       </c>
       <c r="F44" s="10">
-        <v>1786</v>
+        <v>1696</v>
       </c>
       <c r="G44" s="10">
-        <v>1888</v>
+        <v>1777</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <v>7741</v>
+        <v>6927</v>
       </c>
       <c r="K44" s="10">
-        <v>7312</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2687,34 +2687,34 @@
         <v>51</v>
       </c>
       <c r="B45" s="8">
-        <v>17859</v>
+        <v>13614</v>
       </c>
       <c r="C45" s="8">
-        <v>16795</v>
+        <v>12644</v>
       </c>
       <c r="D45" s="8">
-        <v>16996</v>
+        <v>15105</v>
       </c>
       <c r="E45" s="8">
-        <v>16903</v>
+        <v>14426</v>
       </c>
       <c r="F45" s="8">
-        <v>14400</v>
+        <v>13845</v>
       </c>
       <c r="G45" s="8">
-        <v>15571</v>
+        <v>14508</v>
       </c>
       <c r="H45" s="8">
+        <v>18</v>
+      </c>
+      <c r="I45" s="8">
         <v>17</v>
       </c>
-      <c r="I45" s="8">
-        <v>18</v>
-      </c>
       <c r="J45" s="8">
-        <v>49273</v>
+        <v>42582</v>
       </c>
       <c r="K45" s="8">
-        <v>49286</v>
+        <v>41595</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,34 +2722,34 @@
         <v>52</v>
       </c>
       <c r="B46" s="10">
-        <v>1410</v>
+        <v>1093</v>
       </c>
       <c r="C46" s="10">
-        <v>1272</v>
+        <v>1029</v>
       </c>
       <c r="D46" s="10">
-        <v>1071</v>
+        <v>954</v>
       </c>
       <c r="E46" s="10">
-        <v>1029</v>
+        <v>915</v>
       </c>
       <c r="F46" s="10">
-        <v>1314</v>
+        <v>1332</v>
       </c>
       <c r="G46" s="10">
-        <v>1394</v>
+        <v>1268</v>
       </c>
       <c r="H46" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I46" s="10">
         <v>0.03</v>
       </c>
       <c r="J46" s="10">
-        <v>3795</v>
+        <v>3378</v>
       </c>
       <c r="K46" s="10">
-        <v>3695</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2757,22 +2757,22 @@
         <v>53</v>
       </c>
       <c r="B47" s="10">
-        <v>2698</v>
+        <v>2039</v>
       </c>
       <c r="C47" s="10">
-        <v>2436</v>
+        <v>1946</v>
       </c>
       <c r="D47" s="10">
-        <v>2239</v>
+        <v>2002</v>
       </c>
       <c r="E47" s="10">
-        <v>2133</v>
+        <v>1956</v>
       </c>
       <c r="F47" s="10">
-        <v>2776</v>
+        <v>2748</v>
       </c>
       <c r="G47" s="10">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="H47" s="10">
         <v>1</v>
@@ -2781,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="10">
-        <v>7714</v>
+        <v>6791</v>
       </c>
       <c r="K47" s="10">
-        <v>7457</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,22 +2792,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="10">
-        <v>1647</v>
+        <v>1312</v>
       </c>
       <c r="C48" s="10">
-        <v>1414</v>
+        <v>1279</v>
       </c>
       <c r="D48" s="10">
-        <v>1705</v>
+        <v>1553</v>
       </c>
       <c r="E48" s="10">
-        <v>1643</v>
+        <v>1546</v>
       </c>
       <c r="F48" s="10">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="G48" s="10">
-        <v>1497</v>
+        <v>1532</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>4743</v>
+        <v>4259</v>
       </c>
       <c r="K48" s="10">
-        <v>4555</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,34 +2827,34 @@
         <v>55</v>
       </c>
       <c r="B49" s="10">
-        <v>12104</v>
+        <v>9170</v>
       </c>
       <c r="C49" s="10">
-        <v>11673</v>
+        <v>8391</v>
       </c>
       <c r="D49" s="10">
-        <v>11982</v>
+        <v>10597</v>
       </c>
       <c r="E49" s="10">
-        <v>12098</v>
+        <v>10009</v>
       </c>
       <c r="F49" s="10">
-        <v>8919</v>
+        <v>8370</v>
       </c>
       <c r="G49" s="10">
-        <v>9792</v>
+        <v>8809</v>
       </c>
       <c r="H49" s="10">
+        <v>17</v>
+      </c>
+      <c r="I49" s="10">
         <v>16</v>
       </c>
-      <c r="I49" s="10">
-        <v>17</v>
-      </c>
       <c r="J49" s="10">
-        <v>33021</v>
+        <v>28154</v>
       </c>
       <c r="K49" s="10">
-        <v>33580</v>
+        <v>27225</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2862,22 +2862,22 @@
         <v>56</v>
       </c>
       <c r="B50" s="8">
-        <v>6823</v>
+        <v>6311</v>
       </c>
       <c r="C50" s="8">
-        <v>7128</v>
+        <v>6354</v>
       </c>
       <c r="D50" s="8">
-        <v>8025</v>
+        <v>7261</v>
       </c>
       <c r="E50" s="8">
-        <v>7930</v>
+        <v>7295</v>
       </c>
       <c r="F50" s="8">
-        <v>6852</v>
+        <v>6364</v>
       </c>
       <c r="G50" s="8">
-        <v>7042</v>
+        <v>6844</v>
       </c>
       <c r="H50" s="8">
         <v>11</v>
@@ -2886,10 +2886,10 @@
         <v>11</v>
       </c>
       <c r="J50" s="8">
-        <v>21711</v>
+        <v>19948</v>
       </c>
       <c r="K50" s="8">
-        <v>22112</v>
+        <v>20504</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2897,34 +2897,34 @@
         <v>57</v>
       </c>
       <c r="B51" s="10">
-        <v>2601</v>
+        <v>1924</v>
       </c>
       <c r="C51" s="10">
-        <v>2556</v>
+        <v>1869</v>
       </c>
       <c r="D51" s="10">
-        <v>2508</v>
+        <v>2209</v>
       </c>
       <c r="E51" s="10">
-        <v>2460</v>
+        <v>2120</v>
       </c>
       <c r="F51" s="10">
-        <v>1242</v>
+        <v>1124</v>
       </c>
       <c r="G51" s="10">
-        <v>1330</v>
+        <v>1232</v>
       </c>
       <c r="H51" s="10">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="I51" s="10">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="J51" s="10">
-        <v>6351</v>
+        <v>5258</v>
       </c>
       <c r="K51" s="10">
-        <v>6347</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2935,19 +2935,19 @@
         <v>1340</v>
       </c>
       <c r="C52" s="10">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="D52" s="10">
-        <v>1696</v>
+        <v>1577</v>
       </c>
       <c r="E52" s="10">
-        <v>1724</v>
+        <v>1632</v>
       </c>
       <c r="F52" s="10">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="G52" s="10">
-        <v>1307</v>
+        <v>1258</v>
       </c>
       <c r="H52" s="10">
         <v>5</v>
@@ -2956,10 +2956,10 @@
         <v>5</v>
       </c>
       <c r="J52" s="10">
-        <v>4333</v>
+        <v>4221</v>
       </c>
       <c r="K52" s="10">
-        <v>4462</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,22 +2967,22 @@
         <v>59</v>
       </c>
       <c r="B53" s="10">
-        <v>547</v>
+        <v>649</v>
       </c>
       <c r="C53" s="10">
-        <v>522</v>
+        <v>714</v>
       </c>
       <c r="D53" s="10">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E53" s="10">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F53" s="10">
-        <v>573</v>
+        <v>481</v>
       </c>
       <c r="G53" s="10">
-        <v>592</v>
+        <v>496</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K53" s="10">
-        <v>1618</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,22 +3002,22 @@
         <v>60</v>
       </c>
       <c r="B54" s="10">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="C54" s="10">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="D54" s="10">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E54" s="10">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F54" s="10">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G54" s="10">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>1075</v>
+        <v>1118</v>
       </c>
       <c r="K54" s="10">
-        <v>1074</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3037,22 +3037,22 @@
         <v>61</v>
       </c>
       <c r="B55" s="10">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="C55" s="10">
-        <v>949</v>
+        <v>601</v>
       </c>
       <c r="D55" s="10">
-        <v>946</v>
+        <v>740</v>
       </c>
       <c r="E55" s="10">
-        <v>808</v>
+        <v>697</v>
       </c>
       <c r="F55" s="10">
-        <v>1144</v>
+        <v>918</v>
       </c>
       <c r="G55" s="10">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="H55" s="10">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="J55" s="10">
-        <v>2802</v>
+        <v>2383</v>
       </c>
       <c r="K55" s="10">
-        <v>2912</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3072,22 +3072,22 @@
         <v>62</v>
       </c>
       <c r="B56" s="10">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="C56" s="10">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="D56" s="10">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="E56" s="10">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="F56" s="10">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G56" s="10">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>1812</v>
+        <v>1761</v>
       </c>
       <c r="K56" s="10">
-        <v>1897</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,22 +3107,22 @@
         <v>63</v>
       </c>
       <c r="B57" s="10">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="C57" s="10">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="D57" s="10">
-        <v>924</v>
+        <v>866</v>
       </c>
       <c r="E57" s="10">
-        <v>983</v>
+        <v>918</v>
       </c>
       <c r="F57" s="10">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G57" s="10">
-        <v>751</v>
+        <v>806</v>
       </c>
       <c r="H57" s="10">
         <v>5</v>
@@ -3131,10 +3131,10 @@
         <v>5</v>
       </c>
       <c r="J57" s="10">
-        <v>2304</v>
+        <v>2248</v>
       </c>
       <c r="K57" s="10">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,22 +3142,22 @@
         <v>64</v>
       </c>
       <c r="B58" s="10">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C58" s="10">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="D58" s="10">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="E58" s="10">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F58" s="10">
-        <v>891</v>
+        <v>835</v>
       </c>
       <c r="G58" s="10">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="10">
+        <v>1341</v>
+      </c>
+      <c r="K58" s="10">
         <v>1412</v>
-      </c>
-      <c r="K58" s="10">
-        <v>1384</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3177,34 +3177,34 @@
         <v>65</v>
       </c>
       <c r="B59" s="8">
-        <v>10913</v>
+        <v>10346</v>
       </c>
       <c r="C59" s="8">
-        <v>12031</v>
+        <v>10978</v>
       </c>
       <c r="D59" s="8">
-        <v>13512</v>
+        <v>12955</v>
       </c>
       <c r="E59" s="8">
-        <v>14747</v>
+        <v>13078</v>
       </c>
       <c r="F59" s="8">
-        <v>7201</v>
+        <v>6769</v>
       </c>
       <c r="G59" s="8">
-        <v>8050</v>
+        <v>7123</v>
       </c>
       <c r="H59" s="8">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I59" s="8">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J59" s="8">
-        <v>31698</v>
+        <v>30128</v>
       </c>
       <c r="K59" s="8">
-        <v>34906</v>
+        <v>31247</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3212,34 +3212,34 @@
         <v>66</v>
       </c>
       <c r="B60" s="10">
-        <v>7110</v>
+        <v>6194</v>
       </c>
       <c r="C60" s="10">
-        <v>8418</v>
+        <v>6432</v>
       </c>
       <c r="D60" s="10">
-        <v>9789</v>
+        <v>9342</v>
       </c>
       <c r="E60" s="10">
-        <v>11049</v>
+        <v>9368</v>
       </c>
       <c r="F60" s="10">
-        <v>4227</v>
+        <v>3954</v>
       </c>
       <c r="G60" s="10">
-        <v>4786</v>
+        <v>4019</v>
       </c>
       <c r="H60" s="10">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I60" s="10">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J60" s="10">
-        <v>21196</v>
+        <v>19544</v>
       </c>
       <c r="K60" s="10">
-        <v>24329</v>
+        <v>19884</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3247,22 +3247,22 @@
         <v>67</v>
       </c>
       <c r="B61" s="10">
-        <v>1340</v>
+        <v>1470</v>
       </c>
       <c r="C61" s="10">
-        <v>1279</v>
+        <v>1610</v>
       </c>
       <c r="D61" s="10">
-        <v>1360</v>
+        <v>1305</v>
       </c>
       <c r="E61" s="10">
-        <v>1328</v>
+        <v>1368</v>
       </c>
       <c r="F61" s="10">
-        <v>960</v>
+        <v>909</v>
       </c>
       <c r="G61" s="10">
-        <v>1069</v>
+        <v>1007</v>
       </c>
       <c r="H61" s="10">
         <v>2</v>
@@ -3271,10 +3271,10 @@
         <v>2</v>
       </c>
       <c r="J61" s="10">
-        <v>3662</v>
+        <v>3686</v>
       </c>
       <c r="K61" s="10">
-        <v>3678</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,34 +3282,34 @@
         <v>68</v>
       </c>
       <c r="B62" s="10">
-        <v>2462</v>
+        <v>2682</v>
       </c>
       <c r="C62" s="10">
-        <v>2333</v>
+        <v>2936</v>
       </c>
       <c r="D62" s="10">
-        <v>2362</v>
+        <v>2309</v>
       </c>
       <c r="E62" s="10">
-        <v>2370</v>
+        <v>2343</v>
       </c>
       <c r="F62" s="10">
-        <v>2015</v>
+        <v>1906</v>
       </c>
       <c r="G62" s="10">
-        <v>2194</v>
+        <v>2097</v>
       </c>
       <c r="H62" s="10">
         <v>1</v>
       </c>
       <c r="I62" s="10">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="J62" s="10">
-        <v>6840</v>
+        <v>6898</v>
       </c>
       <c r="K62" s="10">
-        <v>6899</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,22 +3317,22 @@
         <v>69</v>
       </c>
       <c r="B63" s="8">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C63" s="8">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D63" s="8">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E63" s="8">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F63" s="8">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="G63" s="8">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>1342</v>
+        <v>1294</v>
       </c>
       <c r="K63" s="8">
-        <v>1335</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3352,22 +3352,22 @@
         <v>70</v>
       </c>
       <c r="B64" s="10">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C64" s="10">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D64" s="10">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E64" s="10">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F64" s="10">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G64" s="10">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H64" s="10">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="K64" s="10">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3387,22 +3387,22 @@
         <v>71</v>
       </c>
       <c r="B65" s="10">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C65" s="10">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D65" s="10">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="E65" s="10">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F65" s="10">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G65" s="10">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="10">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="K65" s="10">
-        <v>831</v>
+        <v>817</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3422,34 +3422,34 @@
         <v>72</v>
       </c>
       <c r="B66" s="8">
-        <v>101138</v>
+        <v>92797</v>
       </c>
       <c r="C66" s="8">
-        <v>99349</v>
+        <v>92678</v>
       </c>
       <c r="D66" s="8">
-        <v>112314</v>
+        <v>104451</v>
       </c>
       <c r="E66" s="8">
-        <v>112821</v>
+        <v>104140</v>
       </c>
       <c r="F66" s="8">
-        <v>77919</v>
+        <v>75092</v>
       </c>
       <c r="G66" s="8">
-        <v>83249</v>
+        <v>78495</v>
       </c>
       <c r="H66" s="8">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="I66" s="8">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="J66" s="8">
-        <v>291985</v>
+        <v>272932</v>
       </c>
       <c r="K66" s="8">
-        <v>296055</v>
+        <v>275917</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
